--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -301,6 +301,30 @@
   </si>
   <si>
     <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị treo</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
   </si>
 </sst>
 </file>
@@ -700,7 +724,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -722,21 +761,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,43 +1102,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1159,58 +1183,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1235,23 +1259,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,7 +1321,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1334,7 +1358,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1369,7 +1393,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1422,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1427,7 +1451,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1456,7 +1480,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1509,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1516,7 +1540,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +1569,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1574,7 +1598,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1603,7 +1627,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2834,13 +2858,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2852,6 +2869,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2863,7 +2887,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2895,43 +2919,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -2976,58 +3000,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3052,23 +3076,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3122,7 +3146,7 @@
         <v>78</v>
       </c>
       <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3183,7 +3207,7 @@
         <v>78</v>
       </c>
       <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3242,7 +3266,7 @@
         <v>78</v>
       </c>
       <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3301,7 +3325,7 @@
         <v>78</v>
       </c>
       <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3311,26 +3335,54 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44481</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44481</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868926034000551</v>
+      </c>
       <c r="F10" s="55"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="1"/>
+      <c r="I10" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="L10" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3340,26 +3392,52 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="37">
+        <v>44481</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44481</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="39">
+        <v>869696043503379</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="50" t="s">
+        <v>84</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3369,26 +3447,54 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="37">
+        <v>44481</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44481</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868345035625847</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="60" t="s">
+        <v>91</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="4"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3400,26 +3506,54 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="37">
+        <v>44481</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44481</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="39">
+        <v>866192037830708</v>
+      </c>
       <c r="F13" s="55"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="60" t="s">
+        <v>91</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="K13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="4"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3429,26 +3563,54 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="37">
+        <v>44483</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44484</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868926033966752</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="50" t="s">
+        <v>89</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="4"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3458,26 +3620,54 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="37">
+        <v>44483</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44484</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="39">
+        <v>864811037154890</v>
+      </c>
       <c r="F15" s="55"/>
-      <c r="G15" s="38"/>
+      <c r="G15" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="50" t="s">
+        <v>80</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="K15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
+      <c r="O15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3506,7 +3696,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3625,7 +3815,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -4094,7 +4284,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4126,7 +4316,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -4158,7 +4348,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4737,13 +4927,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4755,6 +4938,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4798,43 +4988,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -4879,58 +5069,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -4955,23 +5145,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5019,7 +5209,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5072,7 +5262,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5125,7 +5315,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5180,7 +5370,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5209,7 +5399,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5238,7 +5428,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5267,7 +5457,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5298,7 +5488,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5327,7 +5517,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5356,7 +5546,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5385,7 +5575,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6616,13 +6806,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6634,6 +6817,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6677,43 +6867,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6758,58 +6948,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -6834,23 +7024,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6876,7 +7066,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6907,7 +7097,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6936,7 +7126,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6965,7 +7155,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6994,7 +7184,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7023,7 +7213,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7052,7 +7242,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7083,7 +7273,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7112,7 +7302,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7141,7 +7331,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7170,7 +7360,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8401,13 +8591,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8419,6 +8602,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
@@ -5,34 +5,40 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102" sheetId="36" r:id="rId1"/>
+    <sheet name="TG102LE" sheetId="34" r:id="rId1"/>
     <sheet name="TG102V" sheetId="35" r:id="rId2"/>
-    <sheet name="TG102LE" sheetId="34" r:id="rId3"/>
-    <sheet name="TongThang" sheetId="25" r:id="rId4"/>
+    <sheet name="TG102SE" sheetId="37" r:id="rId3"/>
+    <sheet name="NQ899" sheetId="38" r:id="rId4"/>
+    <sheet name="TG102" sheetId="36" r:id="rId5"/>
+    <sheet name="TongThang" sheetId="25" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NQ899'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongThang!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">'NQ899'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TongThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">TongThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="109">
   <si>
     <t>STT</t>
   </si>
@@ -326,6 +332,45 @@
   <si>
     <t xml:space="preserve">W.1.00.---01.180320 </t>
   </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NCFW,LK</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>NQ899</t>
+  </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>SE.Demo.00029.111215</t>
+  </si>
 </sst>
 </file>
 
@@ -527,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -724,22 +769,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,6 +797,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1102,43 +1153,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1183,99 +1234,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="53" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="68"/>
+      <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,10 +1338,10 @@
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E6" s="39">
-        <v>867330024402680</v>
+        <v>868183034674924</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="38" t="s">
@@ -1298,14 +1349,16 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="60" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="40" t="s">
         <v>61</v>
@@ -1317,174 +1370,286 @@
         <v>19</v>
       </c>
       <c r="R6" s="38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="66" t="s">
+      <c r="T6" s="54"/>
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="65"/>
+      <c r="W6" s="54"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="37">
+        <v>44444</v>
+      </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E7" s="39">
-        <v>866762028427422</v>
+        <v>868183034542147</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="60" t="s">
+        <v>72</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="65"/>
+      <c r="W7" s="54"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="37">
+        <v>44444</v>
+      </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E8" s="39">
-        <v>867330024399670</v>
+        <v>868183034592266</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="60"/>
+      <c r="I8" s="60" t="s">
+        <v>74</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="65"/>
+      <c r="W8" s="54"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="37">
+        <v>44477</v>
+      </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="D9" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183038565680</v>
+      </c>
       <c r="F9" s="55"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>81</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="65"/>
+      <c r="W9" s="54"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44429</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44490</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183038024803</v>
+      </c>
       <c r="F10" s="55"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="60" t="s">
+        <v>104</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="65"/>
+      <c r="W10" s="54"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44429</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44490</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183037801144</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="60" t="s">
+        <v>105</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="65"/>
+      <c r="W11" s="54"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1508,14 +1673,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="54"/>
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="65"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1539,12 +1704,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="65"/>
+      <c r="W13" s="54"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1568,12 +1733,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="65"/>
+      <c r="W14" s="54"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1598,11 +1763,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="65"/>
+      <c r="W15" s="54"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1627,11 +1792,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="65"/>
+      <c r="W16" s="54"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1656,9 +1821,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="65"/>
+      <c r="U17" s="54"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="65"/>
+      <c r="W17" s="54"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1710,7 +1875,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="64" t="s">
+      <c r="U19" s="53" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -1746,7 +1911,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1891,7 +2056,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="64" t="s">
+      <c r="U25" s="53" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -2215,7 +2380,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2247,7 +2412,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2279,7 +2444,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2858,6 +3023,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2869,13 +3041,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2886,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showZeros="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2919,43 +3084,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3000,58 +3165,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3076,23 +3241,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3146,7 +3311,7 @@
         <v>78</v>
       </c>
       <c r="T6" s="65"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3207,7 +3372,7 @@
         <v>78</v>
       </c>
       <c r="T7" s="65"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3266,7 +3431,7 @@
         <v>78</v>
       </c>
       <c r="T8" s="65"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3325,7 +3490,7 @@
         <v>78</v>
       </c>
       <c r="T9" s="65"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3382,7 +3547,7 @@
         <v>78</v>
       </c>
       <c r="T10" s="65"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3437,7 +3602,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3494,7 +3659,7 @@
         <v>78</v>
       </c>
       <c r="T12" s="65"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3553,7 +3718,7 @@
         <v>78</v>
       </c>
       <c r="T13" s="65"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3610,7 +3775,7 @@
         <v>78</v>
       </c>
       <c r="T14" s="65"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3667,7 +3832,7 @@
         <v>78</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3677,26 +3842,52 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="37">
+        <v>44490</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44490</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="39">
+        <v>868345035606391</v>
+      </c>
       <c r="F16" s="55"/>
-      <c r="G16" s="38"/>
+      <c r="G16" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="M16" s="40" t="s">
+        <v>98</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
+      <c r="O16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3706,24 +3897,54 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="37">
+        <v>44490</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44490</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="39">
+        <v>868926033936904</v>
+      </c>
       <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="I17" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="4"/>
+      <c r="O17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T17" s="14"/>
       <c r="U17" s="65"/>
       <c r="V17" s="15"/>
@@ -3733,24 +3954,52 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="37">
+        <v>44490</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44490</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="39">
+        <v>869627031752207</v>
+      </c>
       <c r="F18" s="55"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
+      <c r="O18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="16"/>
@@ -3815,7 +4064,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3879,7 +4128,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -4156,7 +4405,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4284,7 +4533,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4316,7 +4565,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -4348,7 +4597,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4927,6 +5176,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4938,13 +5194,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4955,8 +5204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showZeros="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4988,43 +5237,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5069,99 +5318,99 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="53" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="66" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="53" t="s">
+      <c r="J5" s="68"/>
+      <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5169,90 +5418,78 @@
         <v>1</v>
       </c>
       <c r="B6" s="37">
-        <v>44444</v>
+        <v>44490</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E6" s="39">
-        <v>868183034674924</v>
-      </c>
-      <c r="F6" s="55"/>
+        <v>868345035615731</v>
+      </c>
+      <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="60" t="s">
-        <v>73</v>
-      </c>
+      <c r="I6" s="60"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="52" t="s">
-        <v>68</v>
-      </c>
+      <c r="K6" s="52"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="38" t="s">
-        <v>25</v>
-      </c>
+      <c r="O6" s="40"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="38"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="66" t="s">
+      <c r="T6" s="67"/>
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="54"/>
+      <c r="W6" s="67"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="37">
-        <v>44444</v>
+        <v>44490</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E7" s="39">
-        <v>868183034542147</v>
-      </c>
-      <c r="F7" s="55"/>
+        <v>866104021756914</v>
+      </c>
+      <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K7" s="1" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="40" t="s">
         <v>61</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>19</v>
@@ -5261,120 +5498,70 @@
         <v>25</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="54"/>
+      <c r="W7" s="67"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37">
-        <v>44444</v>
-      </c>
+      <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="39">
-        <v>868183034592266</v>
-      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="55"/>
-      <c r="G8" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="G8" s="38"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="60" t="s">
-        <v>74</v>
-      </c>
+      <c r="I8" s="60"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="40"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="54"/>
+      <c r="W8" s="67"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37">
-        <v>44477</v>
-      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="39">
-        <v>868183038565680</v>
-      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="55"/>
-      <c r="G9" s="38" t="s">
-        <v>81</v>
-      </c>
+      <c r="G9" s="38"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>75</v>
-      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="38" t="s">
-        <v>25</v>
-      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="54"/>
+      <c r="W9" s="67"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5390,7 +5577,7 @@
       <c r="I10" s="60"/>
       <c r="J10" s="1"/>
       <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="40"/>
       <c r="N10" s="1"/>
       <c r="O10" s="40"/>
@@ -5398,12 +5585,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="54"/>
+      <c r="W10" s="67"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5418,8 +5605,8 @@
       <c r="H11" s="38"/>
       <c r="I11" s="60"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="40"/>
       <c r="N11" s="1"/>
       <c r="O11" s="40"/>
@@ -5427,12 +5614,12 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="54"/>
+      <c r="W11" s="67"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5456,14 +5643,14 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="66" t="s">
+      <c r="T12" s="67"/>
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="54"/>
+      <c r="W12" s="67"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5487,12 +5674,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="54"/>
+      <c r="W13" s="67"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5516,12 +5703,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="54"/>
+      <c r="W14" s="67"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -5546,11 +5733,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="54"/>
+      <c r="W15" s="67"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -5575,11 +5762,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="54"/>
+      <c r="W16" s="67"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -5604,9 +5791,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="54"/>
+      <c r="U17" s="67"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="54"/>
+      <c r="W17" s="67"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -5658,7 +5845,7 @@
       <c r="R19" s="38"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="66" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
@@ -5694,7 +5881,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -5839,7 +6026,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="53" t="s">
+      <c r="U25" s="66" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
@@ -6163,7 +6350,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6195,7 +6382,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -6227,7 +6414,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6806,6 +6993,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6817,6 +7011,1781 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="68"/>
+      <c r="K5" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44490</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="39">
+        <v>863586032939336</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="67"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="67"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="67"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="67"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="67"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="67"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="67"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="67"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="67"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="67"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="67"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="67"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="U6:U11"/>
     <mergeCell ref="U12:U16"/>
     <mergeCell ref="P4:P5"/>
@@ -6824,13 +8793,1893 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X57"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="63" customWidth="1"/>
+    <col min="10" max="10" width="53" style="20" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="20" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="20"/>
+    <col min="21" max="21" width="30.5703125" style="20" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="20" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="48"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="68"/>
+      <c r="K5" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>44444</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="39">
+        <v>867330024402680</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="65"/>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37">
+        <v>44444</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="39">
+        <v>866762028427422</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="38"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="65"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="37">
+        <v>44444</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="39">
+        <v>867330024399670</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="65"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="37">
+        <v>44490</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="39">
+        <v>863306024483718</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="65"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="37">
+        <v>44490</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="39">
+        <v>863306024477363</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="65"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="37">
+        <v>44490</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="39">
+        <v>864161026900204</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="65"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="37">
+        <v>44490</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="39">
+        <v>866762024163923</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="65"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="37">
+        <v>44490</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="39">
+        <v>863306024483866</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="65"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>9</v>
+      </c>
+      <c r="B14" s="37">
+        <v>44490</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="39">
+        <v>862118021546822</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="65"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="65"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>11</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="65"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>12</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="65"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>13</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="14"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>14</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="14"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="10">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="14"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="14"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>21</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="14"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="14"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="14"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="14"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="14"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="14"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="14"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="14"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="14"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+      <c r="W35" s="14"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="14"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="10">
+        <f>SUM(V26:V36)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="14"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="14"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="14"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="14"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="14"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="14"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="14"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="35">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="33"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>45</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="33"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>47</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>48</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>49</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>50</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
@@ -6867,43 +10716,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="75"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6948,58 +10797,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -7024,23 +10873,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7066,7 +10915,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7097,7 +10946,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7126,7 +10975,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7155,7 +11004,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7184,7 +11033,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7213,7 +11062,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7242,7 +11091,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7273,7 +11122,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7302,7 +11151,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7331,7 +11180,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7360,7 +11209,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8591,6 +12440,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8602,13 +12458,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="34" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="119">
   <si>
     <t>STT</t>
   </si>
@@ -370,6 +370,36 @@
   </si>
   <si>
     <t>SE.Demo.00029.111215</t>
+  </si>
+  <si>
+    <t>NQ.2.00.00002.180728</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GPS</t>
+  </si>
+  <si>
+    <t>Thay thế module GPS thiết bị lỗi khác sang</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00042.250815</t>
+  </si>
+  <si>
+    <t>ID cũ: 000001404291013</t>
+  </si>
+  <si>
+    <t>Mạch oxi hóa nặng</t>
+  </si>
+  <si>
+    <t>Không sửa chữa</t>
+  </si>
+  <si>
+    <t>KS</t>
   </si>
 </sst>
 </file>
@@ -775,7 +805,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,21 +842,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1120,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1153,43 +1183,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1234,58 +1264,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1310,23 +1340,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1374,7 +1404,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1427,7 +1457,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1480,7 +1510,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +1565,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1590,7 +1620,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1645,7 +1675,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1674,7 +1704,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1705,7 +1735,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1734,7 +1764,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1763,7 +1793,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1792,7 +1822,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3023,13 +3053,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3041,6 +3064,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3084,43 +3114,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3165,58 +3195,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3241,23 +3271,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3311,7 +3341,7 @@
         <v>78</v>
       </c>
       <c r="T6" s="65"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3372,7 +3402,7 @@
         <v>78</v>
       </c>
       <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3431,7 +3461,7 @@
         <v>78</v>
       </c>
       <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3490,7 +3520,7 @@
         <v>78</v>
       </c>
       <c r="T9" s="65"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3547,7 +3577,7 @@
         <v>78</v>
       </c>
       <c r="T10" s="65"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3602,7 +3632,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3659,7 +3689,7 @@
         <v>78</v>
       </c>
       <c r="T12" s="65"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3718,7 +3748,7 @@
         <v>78</v>
       </c>
       <c r="T13" s="65"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3775,7 +3805,7 @@
         <v>78</v>
       </c>
       <c r="T14" s="65"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3832,7 +3862,7 @@
         <v>78</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3887,7 +3917,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5176,13 +5206,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5194,6 +5217,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5204,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5237,43 +5267,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5318,58 +5348,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -5394,23 +5424,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5433,18 +5463,30 @@
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="K6" s="52"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5499,7 +5541,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5528,7 +5570,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5557,7 +5599,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5586,7 +5628,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5615,7 +5657,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5644,7 +5686,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5675,7 +5717,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5704,7 +5746,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5733,7 +5775,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5762,7 +5804,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5913,7 +5955,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -6222,7 +6264,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -6414,7 +6456,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6532,7 +6574,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6993,13 +7035,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7011,6 +7046,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7021,8 +7063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView showZeros="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7054,43 +7096,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7135,58 +7177,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7211,23 +7253,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7244,24 +7286,44 @@
       <c r="E6" s="39">
         <v>863586032939336</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>110</v>
+      </c>
       <c r="G6" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
+      <c r="H6" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>109</v>
+      </c>
       <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7292,7 +7354,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7321,7 +7383,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7350,7 +7412,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7379,7 +7441,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7408,7 +7470,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7437,7 +7499,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7468,7 +7530,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7497,7 +7559,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7526,7 +7588,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7555,7 +7617,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7706,7 +7768,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -7919,7 +7981,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -8207,7 +8269,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8786,13 +8848,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8804,6 +8859,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8814,8 +8876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" topLeftCell="K3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8847,43 +8909,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -8928,58 +8990,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -9004,23 +9066,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9066,7 +9128,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9105,7 +9167,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9142,7 +9204,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9179,7 +9241,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9216,7 +9278,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9253,7 +9315,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9290,7 +9352,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9316,20 +9378,38 @@
       <c r="G13" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="50"/>
+      <c r="H13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>91</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="K13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9366,7 +9446,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9395,7 +9475,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9424,7 +9504,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9543,7 +9623,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -10012,7 +10092,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -10076,7 +10156,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -10655,13 +10735,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10673,6 +10746,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10716,43 +10796,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -10797,58 +10877,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -10873,23 +10953,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10915,7 +10995,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10946,7 +11026,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10975,7 +11055,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11004,7 +11084,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11033,7 +11113,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11062,7 +11142,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11091,7 +11171,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11122,7 +11202,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11151,7 +11231,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11180,7 +11260,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11209,7 +11289,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12440,13 +12520,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12458,6 +12531,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="34" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="125">
   <si>
     <t>STT</t>
   </si>
@@ -400,6 +400,24 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>LE.2.00.---25.200222</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Lỗi connector nguồn</t>
+  </si>
+  <si>
+    <t>Hàn lại connector nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Thiết bị  oxi hóa nặng</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1685,23 +1703,51 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="37">
+        <v>44494</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44494</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183038085176</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>123</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
       <c r="U12" s="68" t="s">
@@ -1716,23 +1762,45 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="37">
+        <v>44494</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44494</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868183034757059</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="50"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="M13" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="38"/>
+      <c r="O13" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
       <c r="U13" s="69"/>
@@ -1973,7 +2041,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -2005,7 +2073,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -2218,7 +2286,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2282,7 +2350,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -2410,7 +2478,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2474,7 +2542,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2592,7 +2660,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -3081,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4039,24 +4107,54 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="56"/>
+      <c r="B19" s="37">
+        <v>44494</v>
+      </c>
+      <c r="C19" s="9">
+        <v>44494</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="39">
+        <v>868926033986875</v>
+      </c>
       <c r="F19" s="55"/>
-      <c r="G19" s="38"/>
+      <c r="G19" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="I19" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N19" s="41"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="4"/>
+      <c r="O19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T19" s="14"/>
       <c r="U19" s="64" t="s">
         <v>39</v>
@@ -4070,24 +4168,54 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="37">
+        <v>44494</v>
+      </c>
+      <c r="C20" s="9">
+        <v>44494</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="39">
+        <v>868926034002896</v>
+      </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="38" t="s">
+        <v>96</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="I20" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="4"/>
+      <c r="O20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
         <v>17</v>
@@ -4158,7 +4286,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -4435,7 +4563,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4563,7 +4691,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4627,7 +4755,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -5234,7 +5362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="34" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="128">
   <si>
     <t>STT</t>
   </si>
@@ -418,6 +418,15 @@
   </si>
   <si>
     <t>Thiết bị  oxi hóa nặng</t>
+  </si>
+  <si>
+    <t>Chập MCU, bộ nhớ, IC nguồn 5V</t>
+  </si>
+  <si>
+    <t>Thiết bị reset</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
   </si>
 </sst>
 </file>
@@ -823,22 +832,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,6 +854,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -1201,43 +1210,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1282,58 +1291,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1358,23 +1367,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1422,7 +1431,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1475,7 +1484,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1528,7 +1537,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1583,7 +1592,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1638,7 +1647,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1693,7 +1702,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1750,7 +1759,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1803,7 +1812,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1832,7 +1841,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1861,7 +1870,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1890,7 +1899,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3121,6 +3130,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3132,13 +3148,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3182,43 +3191,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3263,58 +3272,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3339,23 +3348,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3409,7 +3418,7 @@
         <v>78</v>
       </c>
       <c r="T6" s="65"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3470,7 +3479,7 @@
         <v>78</v>
       </c>
       <c r="T7" s="65"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3529,7 +3538,7 @@
         <v>78</v>
       </c>
       <c r="T8" s="65"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3588,7 +3597,7 @@
         <v>78</v>
       </c>
       <c r="T9" s="65"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3645,7 +3654,7 @@
         <v>78</v>
       </c>
       <c r="T10" s="65"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3700,7 +3709,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3757,7 +3766,7 @@
         <v>78</v>
       </c>
       <c r="T12" s="65"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3816,7 +3825,7 @@
         <v>78</v>
       </c>
       <c r="T13" s="65"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3873,7 +3882,7 @@
         <v>78</v>
       </c>
       <c r="T14" s="65"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3930,7 +3939,7 @@
         <v>78</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3985,7 +3994,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5334,6 +5343,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5345,13 +5361,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5395,43 +5404,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5476,58 +5485,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -5552,23 +5561,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5614,7 +5623,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5669,7 +5678,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5698,7 +5707,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5727,7 +5736,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5756,7 +5765,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5785,7 +5794,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5814,7 +5823,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5845,7 +5854,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5874,7 +5883,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5903,7 +5912,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5932,7 +5941,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7163,6 +7172,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7174,13 +7190,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7224,43 +7233,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7305,58 +7314,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7381,23 +7390,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7451,7 +7460,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7482,7 +7491,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7511,7 +7520,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7540,7 +7549,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7569,7 +7578,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7598,7 +7607,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7627,7 +7636,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7658,7 +7667,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7687,7 +7696,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7716,7 +7725,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7745,7 +7754,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8976,6 +8985,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8987,13 +9003,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9004,8 +9013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9037,43 +9046,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -9118,58 +9127,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -9194,23 +9203,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9256,7 +9265,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9295,7 +9304,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9332,7 +9341,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9357,19 +9366,35 @@
         <v>96</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>127</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9394,19 +9419,33 @@
         <v>96</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="60" t="s">
+        <v>104</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="40"/>
+      <c r="K10" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9432,18 +9471,30 @@
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="60"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9480,7 +9531,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9537,7 +9588,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9574,7 +9625,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9603,7 +9654,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9632,7 +9683,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9751,7 +9802,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -9783,7 +9834,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -10028,7 +10079,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -10124,7 +10175,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -10252,7 +10303,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -10284,7 +10335,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -10402,7 +10453,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -10863,6 +10914,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10874,13 +10932,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10924,43 +10975,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -11005,58 +11056,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -11081,23 +11132,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11123,7 +11174,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -11154,7 +11205,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11183,7 +11234,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11212,7 +11263,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11241,7 +11292,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11270,7 +11321,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11299,7 +11350,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11330,7 +11381,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11359,7 +11410,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11388,7 +11439,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11417,7 +11468,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12648,6 +12699,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12659,13 +12717,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>ID cũ: 000001310070930</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15959</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,21 +875,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1210,43 +1216,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1291,58 +1297,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1367,23 +1373,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,7 +1437,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1484,7 +1490,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1537,7 +1543,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1592,7 +1598,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1647,7 +1653,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1702,7 +1708,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1759,7 +1765,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1812,7 +1818,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1841,7 +1847,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1870,7 +1876,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1899,7 +1905,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3130,13 +3136,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3148,6 +3147,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3191,43 +3197,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3272,58 +3278,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3348,23 +3354,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3418,7 +3424,7 @@
         <v>78</v>
       </c>
       <c r="T6" s="65"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3479,7 +3485,7 @@
         <v>78</v>
       </c>
       <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3538,7 +3544,7 @@
         <v>78</v>
       </c>
       <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>78</v>
       </c>
       <c r="T9" s="65"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3654,7 +3660,7 @@
         <v>78</v>
       </c>
       <c r="T10" s="65"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3709,7 +3715,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3766,7 +3772,7 @@
         <v>78</v>
       </c>
       <c r="T12" s="65"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3825,7 +3831,7 @@
         <v>78</v>
       </c>
       <c r="T13" s="65"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3882,7 +3888,7 @@
         <v>78</v>
       </c>
       <c r="T14" s="65"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3939,7 +3945,7 @@
         <v>78</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3994,7 +4000,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5343,13 +5349,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5361,6 +5360,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5404,43 +5410,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5485,58 +5491,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -5561,23 +5567,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5623,7 +5629,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5678,7 +5684,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5707,7 +5713,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5736,7 +5742,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5765,7 +5771,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5794,7 +5800,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5823,7 +5829,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5854,7 +5860,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5883,7 +5889,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5912,7 +5918,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5941,7 +5947,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7172,13 +7178,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7190,6 +7189,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7233,43 +7239,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7314,58 +7320,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7390,23 +7396,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7460,7 +7466,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7491,7 +7497,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7520,7 +7526,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7549,7 +7555,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7578,7 +7584,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7607,7 +7613,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7636,7 +7642,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7667,7 +7673,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7696,7 +7702,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7725,7 +7731,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7754,7 +7760,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8985,13 +8991,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9003,6 +9002,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9013,8 +9019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9046,43 +9052,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -9127,58 +9133,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -9203,23 +9209,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9265,7 +9271,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9278,9 +9284,11 @@
         <v>2</v>
       </c>
       <c r="B7" s="37">
-        <v>44444</v>
-      </c>
-      <c r="C7" s="37"/>
+        <v>44490</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44496</v>
+      </c>
       <c r="D7" s="38" t="s">
         <v>67</v>
       </c>
@@ -9291,20 +9299,38 @@
       <c r="G7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="60"/>
+      <c r="H7" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>129</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9315,9 +9341,11 @@
         <v>3</v>
       </c>
       <c r="B8" s="37">
-        <v>44444</v>
-      </c>
-      <c r="C8" s="37"/>
+        <v>44490</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44496</v>
+      </c>
       <c r="D8" s="38" t="s">
         <v>67</v>
       </c>
@@ -9330,18 +9358,30 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="60"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="O8" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9354,7 +9394,9 @@
       <c r="B9" s="37">
         <v>44490</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44496</v>
+      </c>
       <c r="D9" s="38" t="s">
         <v>67</v>
       </c>
@@ -9394,7 +9436,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9407,7 +9449,9 @@
       <c r="B10" s="37">
         <v>44490</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44496</v>
+      </c>
       <c r="D10" s="38" t="s">
         <v>67</v>
       </c>
@@ -9445,7 +9489,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9458,7 +9502,9 @@
       <c r="B11" s="37">
         <v>44490</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44496</v>
+      </c>
       <c r="D11" s="38" t="s">
         <v>67</v>
       </c>
@@ -9494,7 +9540,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9507,7 +9553,9 @@
       <c r="B12" s="37">
         <v>44490</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37">
+        <v>44496</v>
+      </c>
       <c r="D12" s="38" t="s">
         <v>67</v>
       </c>
@@ -9520,18 +9568,30 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="60"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="40" t="s">
+        <v>117</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9546,7 +9606,9 @@
       <c r="B13" s="37">
         <v>44490</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37">
+        <v>44496</v>
+      </c>
       <c r="D13" s="38" t="s">
         <v>67</v>
       </c>
@@ -9588,7 +9650,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9601,7 +9663,9 @@
       <c r="B14" s="37">
         <v>44490</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="37">
+        <v>44496</v>
+      </c>
       <c r="D14" s="38" t="s">
         <v>67</v>
       </c>
@@ -9613,19 +9677,35 @@
         <v>96</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="60" t="s">
+        <v>91</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="38"/>
+      <c r="O14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9654,7 +9734,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9683,7 +9763,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9802,7 +9882,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -9834,7 +9914,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -10079,7 +10159,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -10271,7 +10351,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -10335,7 +10415,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -10453,7 +10533,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -10914,13 +10994,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10932,6 +11005,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10975,43 +11055,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -11056,58 +11136,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -11132,23 +11212,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11174,7 +11254,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -11205,7 +11285,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11234,7 +11314,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11263,7 +11343,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11292,7 +11372,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11321,7 +11401,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11350,7 +11430,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11381,7 +11461,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11410,7 +11490,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11439,7 +11519,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11468,7 +11548,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12699,13 +12779,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12717,6 +12790,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="34" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -838,22 +838,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,6 +860,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1216,43 +1216,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1297,58 +1297,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1373,23 +1373,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3136,6 +3136,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3147,13 +3154,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3164,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3197,43 +3197,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3278,58 +3278,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3354,23 +3354,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3424,7 +3424,7 @@
         <v>78</v>
       </c>
       <c r="T6" s="65"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3485,7 +3485,7 @@
         <v>78</v>
       </c>
       <c r="T7" s="65"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>78</v>
       </c>
       <c r="T8" s="65"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>78</v>
       </c>
       <c r="T9" s="65"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>78</v>
       </c>
       <c r="T10" s="65"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>78</v>
       </c>
       <c r="T12" s="65"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3831,7 +3831,7 @@
         <v>78</v>
       </c>
       <c r="T13" s="65"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>78</v>
       </c>
       <c r="T14" s="65"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>78</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4245,24 +4245,54 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
+      <c r="B21" s="9">
+        <v>44496</v>
+      </c>
+      <c r="C21" s="9">
+        <v>44496</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="39">
+        <v>868926033940377</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="4"/>
+      <c r="O21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
         <v>49</v>
@@ -4277,31 +4307,61 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="9">
+        <v>44496</v>
+      </c>
+      <c r="C22" s="9">
+        <v>44496</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="39">
+        <v>868345031030547</v>
+      </c>
       <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="G22" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="4"/>
+      <c r="I22" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -4578,7 +4638,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4706,7 +4766,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4770,7 +4830,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -5349,6 +5409,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5360,13 +5427,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5410,43 +5470,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5491,58 +5551,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -5567,23 +5627,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5629,7 +5689,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5684,7 +5744,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5713,7 +5773,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5742,7 +5802,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5771,7 +5831,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5800,7 +5860,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5829,7 +5889,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5860,7 +5920,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5889,7 +5949,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5918,7 +5978,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5947,7 +6007,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7178,6 +7238,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7189,13 +7256,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7239,43 +7299,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7320,58 +7380,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7396,23 +7456,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7466,7 +7526,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7497,7 +7557,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7526,7 +7586,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7555,7 +7615,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7584,7 +7644,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7613,7 +7673,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7642,7 +7702,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7673,7 +7733,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7702,7 +7762,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7731,7 +7791,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7760,7 +7820,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8991,6 +9051,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9002,13 +9069,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9019,8 +9079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showZeros="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="A21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9052,43 +9112,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -9133,58 +9193,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -9209,23 +9269,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9271,7 +9331,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9330,7 +9390,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9381,7 +9441,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9436,7 +9496,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9489,7 +9549,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9540,7 +9600,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9591,7 +9651,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9650,7 +9710,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9705,7 +9765,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9734,7 +9794,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9763,7 +9823,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10994,6 +11054,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11005,13 +11072,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11055,43 +11115,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -11136,58 +11196,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="80" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="72" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -11212,23 +11272,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11254,7 +11314,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -11285,7 +11345,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11314,7 +11374,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11343,7 +11403,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11372,7 +11432,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11401,7 +11461,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11430,7 +11490,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11461,7 +11521,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11490,7 +11550,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11519,7 +11579,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11548,7 +11608,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12779,6 +12839,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12790,13 +12857,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/2.XulyBH/XLBH2110_Lapdat.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -838,7 +838,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,21 +875,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1216,43 +1216,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -1297,58 +1297,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1373,23 +1373,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1905,7 +1905,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3136,13 +3136,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3154,6 +3147,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3164,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3197,43 +3197,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -3278,58 +3278,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3354,23 +3354,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3424,7 +3424,7 @@
         <v>78</v>
       </c>
       <c r="T6" s="65"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3485,7 +3485,7 @@
         <v>78</v>
       </c>
       <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>78</v>
       </c>
       <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>78</v>
       </c>
       <c r="T9" s="65"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>78</v>
       </c>
       <c r="T10" s="65"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>78</v>
       </c>
       <c r="T12" s="65"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3831,7 +3831,7 @@
         <v>78</v>
       </c>
       <c r="T13" s="65"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>78</v>
       </c>
       <c r="T14" s="65"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>78</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -4369,24 +4369,54 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="9">
+        <v>44498</v>
+      </c>
+      <c r="C23" s="9">
+        <v>44498</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="39">
+        <v>864811037228785</v>
+      </c>
       <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="G23" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="4"/>
+      <c r="I23" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="16"/>
@@ -4396,24 +4426,54 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="B24" s="9">
+        <v>44498</v>
+      </c>
+      <c r="C24" s="9">
+        <v>44498</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="39">
+        <v>868926033913994</v>
+      </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="G24" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="4"/>
+      <c r="I24" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R24" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
       <c r="V24" s="16"/>
@@ -4638,7 +4698,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4766,7 +4826,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -4830,7 +4890,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -5409,13 +5469,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5427,6 +5480,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5470,43 +5530,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -5551,58 +5611,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -5627,23 +5687,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5689,7 +5749,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5744,7 +5804,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5773,7 +5833,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5802,7 +5862,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5831,7 +5891,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5860,7 +5920,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5889,7 +5949,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5920,7 +5980,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5949,7 +6009,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5978,7 +6038,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6007,7 +6067,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7238,13 +7298,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7256,6 +7309,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7299,43 +7359,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -7380,58 +7440,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -7456,23 +7516,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7526,7 +7586,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7557,7 +7617,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7586,7 +7646,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7615,7 +7675,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7644,7 +7704,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7673,7 +7733,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7702,7 +7762,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7733,7 +7793,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="4"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7762,7 +7822,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7791,7 +7851,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7820,7 +7880,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9051,13 +9111,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9069,6 +9122,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9112,43 +9172,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="57"/>
@@ -9193,58 +9253,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -9269,23 +9329,23 @@
       <c r="I5" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9331,7 +9391,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -9390,7 +9450,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -9441,7 +9501,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -9496,7 +9556,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9549,7 +9609,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9600,7 +9660,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9651,7 +9711,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9710,7 +9770,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9765,7 +9825,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9794,7 +9854,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9823,7 +9883,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11054,13 +11114,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11072,6 +11125,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11115,43 +11175,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -11196,58 +11256,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
@@ -11272,23 +11332,23 @@
       <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11314,7 +11374,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="43"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -11345,7 +11405,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="43"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11374,7 +11434,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="43"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11403,7 +11463,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="43"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -11432,7 +11492,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="43"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11461,7 +11521,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="43"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11490,7 +11550,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="43"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11521,7 +11581,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="43"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11550,7 +11610,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="43"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11579,7 +11639,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11608,7 +11668,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12839,13 +12899,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12857,6 +12910,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
